--- a/public/files/template/inventory/kibd.xlsx
+++ b/public/files/template/inventory/kibd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) D</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>[b.kode]</t>
+  </si>
+  <si>
+    <t>Tanggal Export</t>
+  </si>
+  <si>
+    <t>[b.tanggal_export]</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -558,6 +564,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -565,37 +604,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,49 +1023,49 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1081,11 +1090,11 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="23" t="str">
+      <c r="B4" s="21" t="str">
         <f>'[1]KIB A'!B3</f>
         <v>Provinsi</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1108,11 +1117,11 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="21" t="str">
         <f>'[1]KIB A'!B4</f>
         <v>Kab./Kota</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1135,11 +1144,11 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="21" t="str">
         <f>'[1]KIB A'!B5</f>
         <v>Bidang</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1162,11 +1171,11 @@
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="21" t="str">
         <f>'[1]KIB A'!B6</f>
         <v>Unit Organisasi</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1189,11 +1198,11 @@
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="21" t="str">
         <f>'[1]KIB A'!B7</f>
         <v>Sub Unit Organisasi</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1216,11 +1225,11 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="21" t="str">
         <f>'[1]KIB A'!B8</f>
         <v>U P B</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1243,11 +1252,11 @@
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="21" t="str">
         <f>'[1]KIB A'!B9</f>
         <v xml:space="preserve">NO. KODE LOKASI </v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1270,10 +1279,16 @@
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1291,77 +1306,77 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26" t="s">
+      <c r="L12" s="22"/>
+      <c r="M12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="31"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1485,11 +1500,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
@@ -1501,14 +1518,13 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>